--- a/outputs_HGR/o__Burkholderiales.xlsx
+++ b/outputs_HGR/o__Burkholderiales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,25 +452,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-f__Oxalobacteraceae</t>
+          <t>3-f__Sutterellaceae</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4-f__Sutterellaceae</t>
+          <t>max</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -483,26 +478,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01275589078694549</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9872441092130101</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9872441092130101</v>
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -521,20 +513,17 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -547,26 +536,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01275589078694549</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9872441092130101</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9872441092130101</v>
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -579,28 +565,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
@@ -617,20 +600,17 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -649,20 +629,17 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -681,20 +658,17 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -707,28 +681,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
@@ -745,20 +716,17 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -777,20 +745,17 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -803,28 +768,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
@@ -835,26 +797,23 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -873,20 +832,17 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -895,7 +851,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13480.fa</t>
+          <t>even_MAG-GUT12991.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -905,20 +861,17 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" t="n">
-        <v>1</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -927,7 +880,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13816.fa</t>
+          <t>even_MAG-GUT13170.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -937,20 +890,17 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -959,7 +909,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13955.fa</t>
+          <t>even_MAG-GUT13480.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -969,20 +919,17 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" t="n">
-        <v>1</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -991,7 +938,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14172.fa</t>
+          <t>even_MAG-GUT13637.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1001,20 +948,17 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
-        <v>1</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1023,7 +967,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14572.fa</t>
+          <t>even_MAG-GUT13816.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1033,20 +977,17 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1055,7 +996,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14827.fa</t>
+          <t>even_MAG-GUT13881.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1065,20 +1006,17 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1087,7 +1025,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16149.fa</t>
+          <t>even_MAG-GUT13955.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1097,20 +1035,17 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
-        <v>1</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1119,7 +1054,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16625.fa</t>
+          <t>even_MAG-GUT14050.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1129,20 +1064,17 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" t="n">
-        <v>1</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1151,7 +1083,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16715.fa</t>
+          <t>even_MAG-GUT14125.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1161,20 +1093,17 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
-        <v>1</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1183,7 +1112,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16984.fa</t>
+          <t>even_MAG-GUT14172.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1193,20 +1122,17 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" t="n">
-        <v>1</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1215,30 +1141,27 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17598.fa</t>
+          <t>even_MAG-GUT14250.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1247,7 +1170,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18024.fa</t>
+          <t>even_MAG-GUT14532.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1257,20 +1180,17 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" t="n">
-        <v>1</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1279,7 +1199,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19561.fa</t>
+          <t>even_MAG-GUT14572.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1289,20 +1209,17 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="F27" t="n">
-        <v>1</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1311,7 +1228,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19599.fa</t>
+          <t>even_MAG-GUT14827.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1321,20 +1238,17 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
-      <c r="F28" t="n">
-        <v>1</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1343,7 +1257,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19853.fa</t>
+          <t>even_MAG-GUT15246.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1353,20 +1267,17 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="F29" t="n">
-        <v>1</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1375,7 +1286,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2110.fa</t>
+          <t>even_MAG-GUT15625.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1385,20 +1296,17 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="n">
-        <v>1</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1407,7 +1315,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21424.fa</t>
+          <t>even_MAG-GUT16149.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1417,20 +1325,17 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F31" t="n">
-        <v>1</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1439,30 +1344,27 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22049.fa</t>
+          <t>even_MAG-GUT16156.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01275589078694549</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9872441092130101</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.9872441092130101</v>
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1471,7 +1373,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22670.fa</t>
+          <t>even_MAG-GUT16625.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1481,20 +1383,17 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
-      <c r="F33" t="n">
-        <v>1</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1503,7 +1402,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24564.fa</t>
+          <t>even_MAG-GUT16715.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1513,20 +1412,17 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F34" t="n">
-        <v>1</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1535,7 +1431,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24606.fa</t>
+          <t>even_MAG-GUT16984.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1545,20 +1441,17 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" t="n">
-        <v>1</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1567,7 +1460,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24616.fa</t>
+          <t>even_MAG-GUT17271.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1577,20 +1470,17 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
-      <c r="F36" t="n">
-        <v>1</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1599,30 +1489,27 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24657.fa</t>
+          <t>even_MAG-GUT17598.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01275589078694549</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9872441092130101</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.9872441092130101</v>
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1631,7 +1518,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24787.fa</t>
+          <t>even_MAG-GUT1763.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1641,20 +1528,17 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
-      <c r="F38" t="n">
-        <v>1</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G38" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1663,7 +1547,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24840.fa</t>
+          <t>even_MAG-GUT18024.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1673,20 +1557,17 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" t="n">
-        <v>1</v>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G39" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1695,7 +1576,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24988.fa</t>
+          <t>even_MAG-GUT18195.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1705,20 +1586,17 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
-      <c r="F40" t="n">
-        <v>1</v>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1727,7 +1605,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25022.fa</t>
+          <t>even_MAG-GUT18210.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1737,20 +1615,17 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
-      <c r="F41" t="n">
-        <v>1</v>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1759,7 +1634,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25055.fa</t>
+          <t>even_MAG-GUT18312.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1769,20 +1644,17 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="n">
-        <v>1</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G42" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1791,7 +1663,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25307.fa</t>
+          <t>even_MAG-GUT18361.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1801,20 +1673,17 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
-      <c r="F43" t="n">
-        <v>1</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G43" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1823,39 +1692,36 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25519.fa</t>
+          <t>even_MAG-GUT18974.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2414810533489548</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2755568399531356</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2414810533489548</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2414810533489548</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.2755568399531356</v>
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>f__Burkholderiaceae</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>f__Burkholderiaceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27032.fa</t>
+          <t>even_MAG-GUT19408.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1865,20 +1731,17 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
-      <c r="F45" t="n">
-        <v>1</v>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G45" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1887,7 +1750,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27097.fa</t>
+          <t>even_MAG-GUT19561.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1897,20 +1760,17 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
-      <c r="F46" t="n">
-        <v>1</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G46" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1919,62 +1779,56 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28028.fa</t>
+          <t>even_MAG-GUT19592.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28702.fa</t>
+          <t>even_MAG-GUT19599.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -1983,7 +1837,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29557.fa</t>
+          <t>even_MAG-GUT19853.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1993,20 +1847,17 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
-      <c r="F49" t="n">
-        <v>1</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G49" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2015,7 +1866,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29963.fa</t>
+          <t>even_MAG-GUT2110.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2025,20 +1876,17 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
-      <c r="F50" t="n">
-        <v>1</v>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2047,7 +1895,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30085.fa</t>
+          <t>even_MAG-GUT21424.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2057,20 +1905,17 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
-      <c r="F51" t="n">
-        <v>1</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G51" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2079,7 +1924,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32354.fa</t>
+          <t>even_MAG-GUT22049.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2089,20 +1934,17 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
-      <c r="F52" t="n">
-        <v>1</v>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G52" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2111,30 +1953,27 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32803.fa</t>
+          <t>even_MAG-GUT22670.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G53" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2143,7 +1982,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33566.fa</t>
+          <t>even_MAG-GUT24564.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2153,20 +1992,17 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
-      <c r="F54" t="n">
-        <v>1</v>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G54" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2175,39 +2011,36 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33914.fa</t>
+          <t>even_MAG-GUT24606.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2500000000000001</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.2500000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>f__Alcaligenaceae</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>f__Alcaligenaceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35394.fa</t>
+          <t>even_MAG-GUT24616.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2217,20 +2050,17 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
       </c>
-      <c r="F56" t="n">
-        <v>1</v>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G56" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2239,7 +2069,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35641.fa</t>
+          <t>even_MAG-GUT24657.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2249,20 +2079,17 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
       </c>
-      <c r="F57" t="n">
-        <v>1</v>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G57" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2271,30 +2098,27 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35747.fa</t>
+          <t>even_MAG-GUT24787.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.04495606902507195</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.04495606902507195</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0449560690250719</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8651317929247843</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.8651317929247843</v>
+        <v>1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G58" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2303,7 +2127,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36218.fa</t>
+          <t>even_MAG-GUT24840.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2313,20 +2137,17 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
-      <c r="F59" t="n">
-        <v>1</v>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G59" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2335,30 +2156,27 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3631.fa</t>
+          <t>even_MAG-GUT24988.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01275589078694549</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9872441092130101</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.9872441092130101</v>
+        <v>1</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G60" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2367,7 +2185,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36683.fa</t>
+          <t>even_MAG-GUT25022.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2377,20 +2195,17 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
-      <c r="F61" t="n">
-        <v>1</v>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G61" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2399,7 +2214,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37389.fa</t>
+          <t>even_MAG-GUT25055.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2409,20 +2224,17 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
-      <c r="F62" t="n">
-        <v>1</v>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G62" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2431,7 +2243,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37939.fa</t>
+          <t>even_MAG-GUT25075.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2441,20 +2253,17 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
       </c>
-      <c r="F63" t="n">
-        <v>1</v>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G63" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2463,7 +2272,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37961.fa</t>
+          <t>even_MAG-GUT25223.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2473,20 +2282,17 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
       </c>
-      <c r="F64" t="n">
-        <v>1</v>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G64" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2495,30 +2301,27 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38856.fa</t>
+          <t>even_MAG-GUT25263.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01275589078694549</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9872441092130101</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.9872441092130101</v>
+        <v>1</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G65" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2527,7 +2330,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39108.fa</t>
+          <t>even_MAG-GUT25307.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2537,20 +2340,17 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
-      <c r="F66" t="n">
-        <v>1</v>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G66" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2559,7 +2359,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39136.fa</t>
+          <t>even_MAG-GUT27032.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2569,20 +2369,17 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
       </c>
-      <c r="F67" t="n">
-        <v>1</v>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G67" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2591,7 +2388,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39174.fa</t>
+          <t>even_MAG-GUT27097.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2601,20 +2398,17 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
-      <c r="F68" t="n">
-        <v>1</v>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G68" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2623,7 +2417,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3922.fa</t>
+          <t>even_MAG-GUT28028.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2633,20 +2427,17 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
       </c>
-      <c r="F69" t="n">
-        <v>1</v>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G69" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2655,7 +2446,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39460.fa</t>
+          <t>even_MAG-GUT28702.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2665,20 +2456,17 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
-      <c r="F70" t="n">
-        <v>1</v>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G70" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2687,7 +2475,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3986.fa</t>
+          <t>even_MAG-GUT29557.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2697,20 +2485,17 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
       </c>
-      <c r="F71" t="n">
-        <v>1</v>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G71" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2719,94 +2504,85 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT399.fa</t>
+          <t>even_MAG-GUT29963.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40499.fa</t>
+          <t>even_MAG-GUT30085.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41924.fa</t>
+          <t>even_MAG-GUT31546.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G74" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2815,39 +2591,36 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42294.fa</t>
+          <t>even_MAG-GUT31872.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4260.fa</t>
+          <t>even_MAG-GUT32354.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2857,20 +2630,17 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
       </c>
-      <c r="F76" t="n">
-        <v>1</v>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G76" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2879,7 +2649,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43146.fa</t>
+          <t>even_MAG-GUT32469.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2889,20 +2659,17 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
       </c>
-      <c r="F77" t="n">
-        <v>1</v>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G77" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2911,7 +2678,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4338.fa</t>
+          <t>even_MAG-GUT32803.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2921,20 +2688,17 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
       </c>
-      <c r="F78" t="n">
-        <v>1</v>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G78" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -2943,62 +2707,56 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44855.fa</t>
+          <t>even_MAG-GUT33566.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46199.fa</t>
+          <t>even_MAG-GUT33914.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>0.05195132791763624</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.05195132791763624</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>0.8960973441647275</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1</v>
+        <v>0.8960973441647275</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G80" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3007,30 +2765,27 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46826.fa</t>
+          <t>even_MAG-GUT35394.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G81" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3039,7 +2794,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47180.fa</t>
+          <t>even_MAG-GUT35641.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3049,20 +2804,17 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
-      <c r="F82" t="n">
-        <v>1</v>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G82" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3071,30 +2823,27 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4979.fa</t>
+          <t>even_MAG-GUT36148.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.04495606902507195</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.04495606902507195</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0449560690250719</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8651317929247843</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.8651317929247843</v>
+        <v>1</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G83" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3103,30 +2852,27 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5085.fa</t>
+          <t>even_MAG-GUT36218.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G84" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3135,30 +2881,27 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50906.fa</t>
+          <t>even_MAG-GUT36683.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G85" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3167,30 +2910,27 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53550.fa</t>
+          <t>even_MAG-GUT37389.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01275589078694549</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9872441092130101</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.9872441092130101</v>
+        <v>1</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G86" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3199,7 +2939,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56545.fa</t>
+          <t>even_MAG-GUT37939.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3209,20 +2949,17 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
       </c>
-      <c r="F87" t="n">
-        <v>1</v>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G87" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3231,7 +2968,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56566.fa</t>
+          <t>even_MAG-GUT38016.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3241,20 +2978,17 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>1</v>
       </c>
-      <c r="F88" t="n">
-        <v>1</v>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G88" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3263,7 +2997,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56852.fa</t>
+          <t>even_MAG-GUT38856.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3273,20 +3007,17 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>1</v>
       </c>
-      <c r="F89" t="n">
-        <v>1</v>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G89" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3295,7 +3026,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57085.fa</t>
+          <t>even_MAG-GUT38999.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3305,20 +3036,17 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
       </c>
-      <c r="F90" t="n">
-        <v>1</v>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G90" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3327,30 +3055,27 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57200.fa</t>
+          <t>even_MAG-GUT39108.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G91" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3359,7 +3084,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58179.fa</t>
+          <t>even_MAG-GUT39136.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3369,20 +3094,17 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
       </c>
-      <c r="F92" t="n">
-        <v>1</v>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G92" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3391,30 +3113,27 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58607.fa</t>
+          <t>even_MAG-GUT39174.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G93" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3423,7 +3142,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60374.fa</t>
+          <t>even_MAG-GUT3922.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3433,20 +3152,17 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
       </c>
-      <c r="F94" t="n">
-        <v>1</v>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G94" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3455,7 +3171,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61794.fa</t>
+          <t>even_MAG-GUT39245.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3465,20 +3181,17 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
-      <c r="F95" t="n">
-        <v>1</v>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G95" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3487,7 +3200,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62134.fa</t>
+          <t>even_MAG-GUT39460.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3497,20 +3210,17 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
       </c>
-      <c r="F96" t="n">
-        <v>1</v>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G96" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3519,7 +3229,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62468.fa</t>
+          <t>even_MAG-GUT3986.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3529,20 +3239,17 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>1</v>
       </c>
-      <c r="F97" t="n">
-        <v>1</v>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G97" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3551,30 +3258,27 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6615.fa</t>
+          <t>even_MAG-GUT40105.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>0.05195132791763624</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>0.05195132791763624</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>0.8960973441647275</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
+        <v>0.8960973441647275</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G98" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3583,30 +3287,27 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66915.fa</t>
+          <t>even_MAG-GUT40499.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>0.05195132791763624</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>0.05195132791763624</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>0.8960973441647275</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
+        <v>0.8960973441647275</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G99" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3615,7 +3316,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6727.fa</t>
+          <t>even_MAG-GUT41924.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3625,20 +3326,17 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
       </c>
-      <c r="F100" t="n">
-        <v>1</v>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G100" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3647,7 +3345,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6753.fa</t>
+          <t>even_MAG-GUT4260.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3657,20 +3355,17 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
       </c>
-      <c r="F101" t="n">
-        <v>1</v>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G101" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3679,7 +3374,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67531.fa</t>
+          <t>even_MAG-GUT43146.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -3689,20 +3384,17 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
       </c>
-      <c r="F102" t="n">
-        <v>1</v>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G102" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3711,30 +3403,27 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6873.fa</t>
+          <t>even_MAG-GUT43227.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G103" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3743,7 +3432,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68996.fa</t>
+          <t>even_MAG-GUT4338.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3753,20 +3442,17 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>1</v>
       </c>
-      <c r="F104" t="n">
-        <v>1</v>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G104" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3775,7 +3461,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69662.fa</t>
+          <t>even_MAG-GUT46199.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3785,20 +3471,17 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>1</v>
       </c>
-      <c r="F105" t="n">
-        <v>1</v>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G105" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3807,39 +3490,36 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69729.fa</t>
+          <t>even_MAG-GUT47180.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7016.fa</t>
+          <t>even_MAG-GUT5085.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3849,20 +3529,17 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
       </c>
-      <c r="F107" t="n">
-        <v>1</v>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G107" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3871,7 +3548,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7042.fa</t>
+          <t>even_MAG-GUT50906.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3881,20 +3558,17 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
         <v>1</v>
       </c>
-      <c r="F108" t="n">
-        <v>1</v>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G108" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -3903,135 +3577,123 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72283.fa</t>
+          <t>even_MAG-GUT56545.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7328.fa</t>
+          <t>even_MAG-GUT56566.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73909.fa</t>
+          <t>even_MAG-GUT56852.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73910.fa</t>
+          <t>even_MAG-GUT57085.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73967.fa</t>
+          <t>even_MAG-GUT57726.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4041,20 +3703,17 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
       </c>
-      <c r="F113" t="n">
-        <v>1</v>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G113" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4063,30 +3722,27 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74302.fa</t>
+          <t>even_MAG-GUT58179.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G114" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4095,7 +3751,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74311.fa</t>
+          <t>even_MAG-GUT58214.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4105,20 +3761,17 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
       </c>
-      <c r="F115" t="n">
-        <v>1</v>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G115" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4127,7 +3780,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75471.fa</t>
+          <t>even_MAG-GUT6030.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -4137,20 +3790,17 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>1</v>
       </c>
-      <c r="F116" t="n">
-        <v>1</v>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G116" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4159,7 +3809,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75788.fa</t>
+          <t>even_MAG-GUT60374.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4169,20 +3819,17 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
       </c>
-      <c r="F117" t="n">
-        <v>1</v>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G117" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4191,7 +3838,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75820.fa</t>
+          <t>even_MAG-GUT61409.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4201,20 +3848,17 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
       </c>
-      <c r="F118" t="n">
-        <v>1</v>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G118" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4223,7 +3867,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75834.fa</t>
+          <t>even_MAG-GUT61637.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4233,20 +3877,17 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>1</v>
       </c>
-      <c r="F119" t="n">
-        <v>1</v>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G119" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4255,167 +3896,152 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76995.fa</t>
+          <t>even_MAG-GUT61735.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77348.fa</t>
+          <t>even_MAG-GUT61794.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77357.fa</t>
+          <t>even_MAG-GUT62134.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77371.fa</t>
+          <t>even_MAG-GUT62370.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77389.fa</t>
+          <t>even_MAG-GUT62468.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77563.fa</t>
+          <t>even_MAG-GUT6615.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4425,20 +4051,17 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
       </c>
-      <c r="F125" t="n">
-        <v>1</v>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G125" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4447,7 +4070,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78371.fa</t>
+          <t>even_MAG-GUT66915.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4457,20 +4080,17 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
       </c>
-      <c r="F126" t="n">
-        <v>1</v>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G126" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4479,30 +4099,27 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80052.fa</t>
+          <t>even_MAG-GUT6727.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G127" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4511,7 +4128,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80384.fa</t>
+          <t>even_MAG-GUT6753.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -4521,20 +4138,17 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>1</v>
       </c>
-      <c r="F128" t="n">
-        <v>1</v>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G128" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4543,7 +4157,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80449.fa</t>
+          <t>even_MAG-GUT67531.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4553,20 +4167,17 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
       </c>
-      <c r="F129" t="n">
-        <v>1</v>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G129" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4575,30 +4186,27 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80561.fa</t>
+          <t>even_MAG-GUT6784.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G130" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4607,30 +4215,27 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80720.fa</t>
+          <t>even_MAG-GUT6873.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.04495606902507195</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.04495606902507195</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0449560690250719</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>0.8651317929247843</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.8651317929247843</v>
+        <v>1</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G131" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4639,7 +4244,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80804.fa</t>
+          <t>even_MAG-GUT68996.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -4649,20 +4254,17 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
       </c>
-      <c r="F132" t="n">
-        <v>1</v>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G132" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4671,7 +4273,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81204.fa</t>
+          <t>even_MAG-GUT69662.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -4681,20 +4283,17 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
         <v>1</v>
       </c>
-      <c r="F133" t="n">
-        <v>1</v>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G133" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4703,30 +4302,27 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81560.fa</t>
+          <t>even_MAG-GUT69729.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0.05195132791763624</v>
       </c>
       <c r="C134" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0.05195132791763624</v>
       </c>
       <c r="D134" t="n">
-        <v>0.08891376492284836</v>
+        <v>0.8960973441647275</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.9110862350757227</v>
+        <v>0.8960973441647275</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G134" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4735,30 +4331,27 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81784.fa</t>
+          <t>even_MAG-GUT7016.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G135" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4767,7 +4360,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82115.fa</t>
+          <t>even_MAG-GUT7042.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -4777,20 +4370,17 @@
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
       </c>
-      <c r="F136" t="n">
-        <v>1</v>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G136" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4799,62 +4389,56 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82789.fa</t>
+          <t>even_MAG-GUT72283.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83592.fa</t>
+          <t>even_MAG-GUT73910.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G138" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4863,30 +4447,27 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83946.fa</t>
+          <t>even_MAG-GUT73967.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G139" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4895,30 +4476,27 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84859.fa</t>
+          <t>even_MAG-GUT74302.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>2.219831794314025e-14</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>0.01275589078694549</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9872441092130101</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.9872441092130101</v>
+        <v>1</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G140" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -4927,158 +4505,143 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85462.fa</t>
+          <t>even_MAG-GUT74311.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85601.fa</t>
+          <t>even_MAG-GUT75471.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85702.fa</t>
+          <t>even_MAG-GUT75788.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86329.fa</t>
+          <t>even_MAG-GUT75820.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2449110255154763</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2449110255154763</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.2652669234535711</v>
+        <v>1</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>f__Oxalobacteraceae</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>f__Oxalobacteraceae(reject)</t>
+          <t>f__Sutterellaceae</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86514.fa</t>
+          <t>even_MAG-GUT75834.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>7.144654797577403e-13</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0.08891376492284836</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9110862350757227</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.9110862350757227</v>
+        <v>1</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G145" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -5087,30 +4650,27 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90614.fa</t>
+          <t>even_MAG-GUT76995.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.04495606902507195</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.04495606902507195</v>
+        <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0449560690250719</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>0.8651317929247843</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.8651317929247843</v>
+        <v>1</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G146" t="inlineStr">
-        <is>
-          <t>f__Sutterellaceae</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
@@ -5119,30 +4679,636 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90671.fa</t>
+          <t>even_MAG-GUT77348.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.04495606902507195</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.04495606902507195</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0449560690250719</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0.8651317929247843</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.8651317929247843</v>
+        <v>1</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT77357.fa</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT77371.fa</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT77389.fa</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.05195132791763624</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.05195132791763624</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.8960973441647275</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.8960973441647275</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT77563.fa</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT78371.fa</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80384.fa</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80449.fa</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80720.fa</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80804.fa</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81029.fa</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81145.fa</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81204.fa</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81432.fa</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81523.fa</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82115.fa</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82789.fa</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT83592.fa</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84859.fa</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85462.fa</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85601.fa</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86329.fa</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.05195132791763624</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.05195132791763624</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.8960973441647275</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.8960973441647275</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>f__Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
         <is>
           <t>f__Sutterellaceae</t>
         </is>
